--- a/SouceCode/Schedule/dangKyChucNang.xlsx
+++ b/SouceCode/Schedule/dangKyChucNang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PTUDHTTTHĐ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Tên nhóm</t>
   </si>
@@ -48,12 +48,21 @@
   </si>
   <si>
     <t>Quản lí nhân viên(xem, xóa, sửa, thêm)</t>
+  </si>
+  <si>
+    <t>Quản lý khách hàng(xem, sửa, thêm)</t>
+  </si>
+  <si>
+    <t>Ngô Thị Mai Lý (1412310)</t>
+  </si>
+  <si>
+    <t>21/12/2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,6 +463,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/SouceCode/Schedule/dangKyChucNang.xlsx
+++ b/SouceCode/Schedule/dangKyChucNang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PTUDHTTTHĐ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC 2017 - 2018\HOC KY 1\PTUDHTTTHD\Do An\Tai lieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Tên nhóm</t>
   </si>
@@ -57,12 +57,18 @@
   </si>
   <si>
     <t>21/12/2017</t>
+  </si>
+  <si>
+    <t>Quản lý thống kê</t>
+  </si>
+  <si>
+    <t>Võ Ngọc Công Minh (1412328)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +483,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/SouceCode/Schedule/dangKyChucNang.xlsx
+++ b/SouceCode/Schedule/dangKyChucNang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC 2017 - 2018\HOC KY 1\PTUDHTTTHD\Do An\Tai lieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Tên nhóm</t>
   </si>
@@ -63,12 +63,18 @@
   </si>
   <si>
     <t>Võ Ngọc Công Minh (1412328)</t>
+  </si>
+  <si>
+    <t>Trần Nguyên (1412360)</t>
+  </si>
+  <si>
+    <t>Quán lý thuê phòng (xem, sửa, thêm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +503,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/SouceCode/Schedule/dangKyChucNang.xlsx
+++ b/SouceCode/Schedule/dangKyChucNang.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TranTrongCaoNguyen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Tên nhóm</t>
   </si>
@@ -69,17 +69,23 @@
   </si>
   <si>
     <t>Quán lý thuê phòng (xem, sửa, thêm)</t>
+  </si>
+  <si>
+    <t>Quản lý dịch vụ (xem, sửa, thêm)</t>
+  </si>
+  <si>
+    <t>Trần Trọng Cao Nguyên (1412359)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -104,11 +110,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,13 +133,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0">
+  <autoFilter ref="A1:D18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tên nhóm"/>
-    <tableColumn id="2" name="Thời gian hoàn thành"/>
-    <tableColumn id="3" name="Chức năng"/>
-    <tableColumn id="4" name="Thành viên hoặc nhóm phát triển"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tên nhóm"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thời gian hoàn thành"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Chức năng"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thành viên hoặc nhóm phát triển"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -432,22 +441,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -475,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -489,7 +498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -503,7 +512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -515,6 +524,20 @@
       </c>
       <c r="D5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43090</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/SouceCode/Schedule/dangKyChucNang.xlsx
+++ b/SouceCode/Schedule/dangKyChucNang.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TranTrongCaoNguyen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tu pham\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tên nhóm</t>
   </si>
@@ -37,55 +38,16 @@
   <si>
     <t>Thành viên hoặc nhóm phát triển</t>
   </si>
-  <si>
-    <t>The Owls</t>
-  </si>
-  <si>
-    <t>20/12/2017</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Quân(1412439)</t>
-  </si>
-  <si>
-    <t>Quản lí nhân viên(xem, xóa, sửa, thêm)</t>
-  </si>
-  <si>
-    <t>Quản lý khách hàng(xem, sửa, thêm)</t>
-  </si>
-  <si>
-    <t>Ngô Thị Mai Lý (1412310)</t>
-  </si>
-  <si>
-    <t>21/12/2017</t>
-  </si>
-  <si>
-    <t>Quản lý thống kê</t>
-  </si>
-  <si>
-    <t>Võ Ngọc Công Minh (1412328)</t>
-  </si>
-  <si>
-    <t>Trần Nguyên (1412360)</t>
-  </si>
-  <si>
-    <t>Quán lý thuê phòng (xem, sửa, thêm)</t>
-  </si>
-  <si>
-    <t>Quản lý dịch vụ (xem, sửa, thêm)</t>
-  </si>
-  <si>
-    <t>Trần Trọng Cao Nguyên (1412359)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,14 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,13 +92,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0">
+  <autoFilter ref="A1:D18"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tên nhóm"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thời gian hoàn thành"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Chức năng"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thành viên hoặc nhóm phát triển"/>
+    <tableColumn id="1" name="Tên nhóm"/>
+    <tableColumn id="2" name="Thời gian hoàn thành"/>
+    <tableColumn id="3" name="Chức năng"/>
+    <tableColumn id="4" name="Thành viên hoặc nhóm phát triển"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -441,22 +400,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,76 +429,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43090</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/SouceCode/Schedule/dangKyChucNang.xlsx
+++ b/SouceCode/Schedule/dangKyChucNang.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tu pham\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Tên nhóm</t>
   </si>
@@ -37,12 +36,57 @@
   </si>
   <si>
     <t>Thành viên hoặc nhóm phát triển</t>
+  </si>
+  <si>
+    <t>The Owls</t>
+  </si>
+  <si>
+    <t>20/12/2017</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Quân(1412439)</t>
+  </si>
+  <si>
+    <t>Quản lí nhân viên(xem, xóa, sửa, thêm)</t>
+  </si>
+  <si>
+    <t>Quản lý khách hàng(xem, sửa, thêm)</t>
+  </si>
+  <si>
+    <t>Ngô Thị Mai Lý (1412310)</t>
+  </si>
+  <si>
+    <t>21/12/2017</t>
+  </si>
+  <si>
+    <t>Quản lý thống kê</t>
+  </si>
+  <si>
+    <t>Võ Ngọc Công Minh (1412328)</t>
+  </si>
+  <si>
+    <t>Trần Nguyên (1412360)</t>
+  </si>
+  <si>
+    <t>Quán lý thuê phòng (xem, sửa, thêm)</t>
+  </si>
+  <si>
+    <t>Quản lý dịch vụ (xem, sửa, thêm)</t>
+  </si>
+  <si>
+    <t>Trần Trọng Cao Nguyên (1412359)</t>
+  </si>
+  <si>
+    <t>Quản lý thiết bị(xem, thêm, xóa, sửa)</t>
+  </si>
+  <si>
+    <t>Võ Đặng Nguyễn(1412362)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,8 +116,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,13 +142,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0">
+  <autoFilter ref="A1:D18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tên nhóm"/>
-    <tableColumn id="2" name="Thời gian hoàn thành"/>
-    <tableColumn id="3" name="Chức năng"/>
-    <tableColumn id="4" name="Thành viên hoặc nhóm phát triển"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tên nhóm"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thời gian hoàn thành"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Chức năng"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thành viên hoặc nhóm phát triển"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -400,18 +450,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -427,6 +477,90 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43090</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43090</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
